--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23460" windowHeight="2610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23460" windowHeight="2610" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Asset</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -183,6 +180,9 @@
   </si>
   <si>
     <t>SmtQueue</t>
+  </si>
+  <si>
+    <t>Assets</t>
   </si>
 </sst>
 </file>
@@ -516,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -536,7 +536,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -564,53 +564,53 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
         <v>43</v>
-      </c>
-      <c r="B2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>46</v>
-      </c>
-      <c r="C4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" t="s">
-        <v>48</v>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
       </c>
     </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1630,7 +1630,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1659,183 +1659,183 @@
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>5000</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>30000</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>120000</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>1000</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>15000</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>60000</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0.6</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>0.8</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0.9</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
         <v>28</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>29</v>
-      </c>
-      <c r="C19" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
         <v>31</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>32</v>
-      </c>
-      <c r="C20" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
         <v>34</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>35</v>
-      </c>
-      <c r="C21" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
         <v>37</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>38</v>
-      </c>
-      <c r="C22" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
         <v>40</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>41</v>
-      </c>
-      <c r="C23" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2824,8 +2824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2838,10 +2838,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
